--- a/biology/Botanique/Bacillaria/Bacillaria.xlsx
+++ b/biology/Botanique/Bacillaria/Bacillaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacillaria est un genre de diatomées de la famille des Bacillariaceae[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacillaria est un genre de diatomées de la famille des Bacillariaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Photosynthétique. Reproduction sexuée et multiplication asexuée.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules sont allongées et mobiles, glissant le long de chacune d'elles empilées dans une colonie.
 </t>
@@ -573,10 +589,12 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Largeur ([1] trans-apicale de l'axe): 5 - 8 µm
-Hauteur ([2] Pervalvar de l'axe): 5 - 10 µm
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Largeur ( trans-apicale de l'axe): 5 - 8 µm
+Hauteur ( Pervalvar de l'axe): 5 - 10 µm
 Fibules: 7 - 9 à 10 µm
 Vergetures: 20 - 21 à 10 µm
 </t>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce de la zone benthiques, marine et d'eau saumâtre/d'eau douce, mais il est également fréquent de la trouver dans le plancton.
 </t>
@@ -638,9 +658,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (11 août 2017)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (11 août 2017) :
 Bacillaria adriatica H.S.Lobarzewski (Sans vérification)
 Bacillaria australis Ehrenberg (Sans vérification)
 Bacillaria bipunctata Ehrenberg (Sans vérification)
@@ -678,11 +700,11 @@
 Bacillaria triangularis C.G.T.Preuss (Sans vérification)
 Bacillaria urve-millerae A.M.Schmid &amp; R.Jahn
 Bacillaria vitrea Bory
-Selon ITIS      (11 août 2017)[2] :
+Selon ITIS      (11 août 2017) :
 Bacillaria paxillifer (O. F. Müll.) Hendy
-Selon NCBI  (11 août 2017)[4] :
+Selon NCBI  (11 août 2017) :
 Bacillaria paxillifer
-Selon World Register of Marine Species                               (11 août 2017)[5] :
+Selon World Register of Marine Species                               (11 août 2017) :
 Bacillaria acerosa Schrank, 1823
 Bacillaria acicularis Bukhalova &amp; Shirokova, 1938
 Bacillaria acus Schrank, 1823
